--- a/ReadingListInformation/CBRO/DC/Events/XLSXandCSV/[DC Comics] Batman- Officer Down (WEB-CBRO)-USER.xlsx
+++ b/ReadingListInformation/CBRO/DC/Events/XLSXandCSV/[DC Comics] Batman- Officer Down (WEB-CBRO)-USER.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="43">
   <si>
     <t>SeriesName</t>
   </si>
@@ -49,6 +49,9 @@
     <t>CV Issue Number</t>
   </si>
   <si>
+    <t>CV Series Publisher</t>
+  </si>
+  <si>
     <t>CV Cover Image</t>
   </si>
   <si>
@@ -58,9 +61,6 @@
     <t>Days Between Issues</t>
   </si>
   <si>
-    <t>CV Series Publisher</t>
-  </si>
-  <si>
     <t>Batman</t>
   </si>
   <si>
@@ -85,34 +85,37 @@
     <t>Batman: Gotham Knights</t>
   </si>
   <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>754</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>Issue</t>
   </si>
   <si>
     <t>Comicvine</t>
   </si>
   <si>
-    <t>587</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>754</t>
-  </si>
-  <si>
-    <t>13</t>
+    <t>DC Comics</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -121,7 +124,7 @@
     <t>https://comicvine.gamespot.com/issue/4000-98702/</t>
   </si>
   <si>
-    <t>https://comicvine.gamespot.com/issue/4000-46631/</t>
+    <t>https://comicvine.gamespot.com/robin-86-officer-down-part-two-behind-the-lines/4000-46631/</t>
   </si>
   <si>
     <t>https://comicvine.gamespot.com/issue/4000-121088/</t>
@@ -140,9 +143,6 @@
   </si>
   <si>
     <t>https://comicvine.gamespot.com/issue/4000-55307/</t>
-  </si>
-  <si>
-    <t>DC Comics</t>
   </si>
 </sst>
 </file>
@@ -575,17 +575,17 @@
       <c r="C2" s="2">
         <v>1940</v>
       </c>
-      <c r="D2" s="2">
-        <v>587</v>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3">
         <v>36951</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H2" s="2">
         <v>796</v>
@@ -600,7 +600,7 @@
         <v>1940</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>33</v>
@@ -608,11 +608,11 @@
       <c r="N2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="4">
         <v>0</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -625,17 +625,17 @@
       <c r="C3" s="2">
         <v>1993</v>
       </c>
-      <c r="D3" s="2">
-        <v>86</v>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F3" s="3">
         <v>36951</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H3" s="2">
         <v>4975</v>
@@ -650,19 +650,19 @@
         <v>1993</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="4">
+        <v>34</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="4">
         <v>0</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -675,17 +675,17 @@
       <c r="C4" s="2">
         <v>2000</v>
       </c>
-      <c r="D4" s="2">
-        <v>12</v>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3">
         <v>36951</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H4" s="2">
         <v>7205</v>
@@ -700,19 +700,19 @@
         <v>2000</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="4">
+        <v>34</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="4">
         <v>0</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -725,17 +725,17 @@
       <c r="C5" s="2">
         <v>1999</v>
       </c>
-      <c r="D5" s="2">
-        <v>27</v>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F5" s="3">
         <v>36951</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2">
         <v>6498</v>
@@ -750,19 +750,19 @@
         <v>1999</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" s="4">
+        <v>34</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="4">
         <v>0</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -775,17 +775,17 @@
       <c r="C6" s="2">
         <v>1993</v>
       </c>
-      <c r="D6" s="2">
-        <v>90</v>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F6" s="3">
         <v>36951</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H6" s="2">
         <v>4955</v>
@@ -800,19 +800,19 @@
         <v>1993</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" s="4">
+        <v>34</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="4">
         <v>0</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -825,17 +825,17 @@
       <c r="C7" s="2">
         <v>1996</v>
       </c>
-      <c r="D7" s="2">
-        <v>53</v>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F7" s="3">
         <v>36951</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H7" s="2">
         <v>5755</v>
@@ -850,19 +850,19 @@
         <v>1996</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" s="4">
+        <v>34</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="4">
         <v>0</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -875,17 +875,17 @@
       <c r="C8" s="2">
         <v>1937</v>
       </c>
-      <c r="D8" s="2">
-        <v>754</v>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F8" s="3">
         <v>36951</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H8" s="2">
         <v>18058</v>
@@ -900,19 +900,19 @@
         <v>1937</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O8" s="4">
+        <v>34</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="4">
         <v>0</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -925,17 +925,17 @@
       <c r="C9" s="2">
         <v>2000</v>
       </c>
-      <c r="D9" s="2">
-        <v>13</v>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F9" s="3">
         <v>36951</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H9" s="2">
         <v>7207</v>
@@ -950,31 +950,31 @@
         <v>2000</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="4">
+        <v>34</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="4">
         <v>0</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1"/>
-    <hyperlink ref="N3" r:id="rId2"/>
-    <hyperlink ref="N4" r:id="rId3"/>
-    <hyperlink ref="N5" r:id="rId4"/>
-    <hyperlink ref="N6" r:id="rId5"/>
-    <hyperlink ref="N7" r:id="rId6"/>
-    <hyperlink ref="N8" r:id="rId7"/>
-    <hyperlink ref="N9" r:id="rId8"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="O3" r:id="rId2"/>
+    <hyperlink ref="O4" r:id="rId3"/>
+    <hyperlink ref="O5" r:id="rId4"/>
+    <hyperlink ref="O6" r:id="rId5"/>
+    <hyperlink ref="O7" r:id="rId6"/>
+    <hyperlink ref="O8" r:id="rId7"/>
+    <hyperlink ref="O9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
